--- a/未整理文档/苹果机型资料.xlsx
+++ b/未整理文档/苹果机型资料.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyfeng/SourceTree/MyDocuments/苹果开发笔记/未整理文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyfeng/HanyRepositories/MyDocuments/未整理文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="81">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,14 @@
   </si>
   <si>
     <t>iPad Air 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2224*1668</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1112*834</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,7 +1029,8 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1743,13 +1752,13 @@
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="1">
-        <v>9.6999999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>18</v>

--- a/未整理文档/苹果机型资料.xlsx
+++ b/未整理文档/苹果机型资料.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyfeng/HanyRepositories/MyDocuments/未整理文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyfeng/HanyRepositories/MyGit/MyDocuments/未整理文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,23 +300,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1366*1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 7 Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>iOS 9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1366*1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPhone SE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPhone 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPhone 7 Plus</t>
+    <t>iPad 3(The new iPad)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2224*1668</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1112*834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -324,7 +360,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iOS 10</t>
+    <t>iOS 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2388*1668</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1199*834</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -332,23 +380,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iPad 3(The new iPad)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPad Air</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPad Air 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2224*1668</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1112*834</t>
+    <t>iPad Pro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +578,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -561,10 +593,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="125">
@@ -1026,17 +1055,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
@@ -1418,7 +1447,7 @@
         <v>42430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>63</v>
@@ -1444,10 +1473,10 @@
         <v>42614</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1">
         <v>4.7</v>
@@ -1470,10 +1499,10 @@
         <v>42614</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1">
         <v>5.5</v>
@@ -1557,13 +1586,13 @@
         <v>40969</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1">
         <v>9.6999999999999993</v>
@@ -1609,183 +1638,109 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>41183</v>
+        <v>42795</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E35" s="1">
-        <v>7.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
-        <v>41548</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
-        <v>41548</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
-        <v>41913</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>41913</v>
+        <v>41183</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E39" s="1">
-        <v>9.6999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="6">
-        <v>42278</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="A41" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E41" s="1">
-        <v>12.9</v>
+        <v>7.9</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -1814,13 +1769,215 @@
         <v>17</v>
       </c>
     </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="1">
+        <v>11</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A40:A41"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
